--- a/data/lista_de_municipios_da_amazonia_legal_2014_v03.xlsx
+++ b/data/lista_de_municipios_da_amazonia_legal_2014_v03.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="1562">
   <si>
     <t>Rondônia</t>
   </si>
@@ -4702,6 +4702,9 @@
   </si>
   <si>
     <t>Area_Lost_2055_4</t>
+  </si>
+  <si>
+    <t>Area_Lost_2055_5</t>
   </si>
 </sst>
 </file>
@@ -5182,7 +5185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q773"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5229,19 +5234,19 @@
         <v>1557</v>
       </c>
       <c r="K1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1558</v>
       </c>
       <c r="M1" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="O1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
